--- a/counterp/Report - data support.xlsx
+++ b/counterp/Report - data support.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco SPAGNULO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486B956D-4115-404C-A57D-623F10024538}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16EB875-FA9C-4001-BB8D-499FBF1C84F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="872" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="872" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="North Africa" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="1067">
   <si>
     <t>BANK EGHTESAD NOVIN</t>
   </si>
@@ -3262,6 +3262,150 @@
   </si>
   <si>
     <t>JPMORGAN BANK LUXEMBOURG S.A.</t>
+  </si>
+  <si>
+    <t>SPARKASSE KOELNBONN</t>
+  </si>
+  <si>
+    <t>KOELN</t>
+  </si>
+  <si>
+    <t>BANK OF COMMUNICATIONS CO. LTD</t>
+  </si>
+  <si>
+    <t>CREDIT SUISSE (SCHWEIZ) AG</t>
+  </si>
+  <si>
+    <t>DEUTSCHE BANK (SUISSE) SA – PRIVATE BANKING</t>
+  </si>
+  <si>
+    <t>DEUTSCHE BANK AG</t>
+  </si>
+  <si>
+    <t>COMMERZBANK AG (FORMERLY DRESDNER BANK AG)</t>
+  </si>
+  <si>
+    <t>STADTSPARKASSE DUESSELDORF</t>
+  </si>
+  <si>
+    <t>DUESSELDORF</t>
+  </si>
+  <si>
+    <t>EBI SA </t>
+  </si>
+  <si>
+    <t>EUROPEAN FUND ADMINISTRATION S.A.</t>
+  </si>
+  <si>
+    <t>EUROPAEISCH-IRANISCHE HANDELSBANK AG</t>
+  </si>
+  <si>
+    <t>RBC INVESTOR SERVICES BANK S.A.</t>
+  </si>
+  <si>
+    <t>ESCH-SUR-ALZETTE</t>
+  </si>
+  <si>
+    <t>FIBI BANK (SWITZERLAND) LTD.</t>
+  </si>
+  <si>
+    <t>CACEIS BANK</t>
+  </si>
+  <si>
+    <t>FRANKLIN TEMPLETON INTERNATIONAL SERVICES S.A.</t>
+  </si>
+  <si>
+    <t>DZ BANK AG (FORMERLY WGZ BANK AG)</t>
+  </si>
+  <si>
+    <t>DZ BANK AG, DEUTSCHE ZENTRAL- GENOSSENSCHAFTSBANK</t>
+  </si>
+  <si>
+    <t>BELFIUS BANK SA/NV</t>
+  </si>
+  <si>
+    <t>GUTZWILLER E. ET CIE BANQUIERS</t>
+  </si>
+  <si>
+    <t>HABIB BANK AG</t>
+  </si>
+  <si>
+    <t>BANQUE HERITAGE</t>
+  </si>
+  <si>
+    <t>HSH NORDBANK AG</t>
+  </si>
+  <si>
+    <t>UNICREDIT BANK AG (HYPOVEREINSBANK)</t>
+  </si>
+  <si>
+    <t>MUENCHEN</t>
+  </si>
+  <si>
+    <t>INCORE BANK AG</t>
+  </si>
+  <si>
+    <t>SIX SIS AG</t>
+  </si>
+  <si>
+    <t>THE BANK OF NEW YORK MELLON (LUXEMBOURG) SA</t>
+  </si>
+  <si>
+    <t>BERNER KANTONALBANK AG</t>
+  </si>
+  <si>
+    <t>BERNE</t>
+  </si>
+  <si>
+    <t>KBL EUROPEAN PRIVATE BANKERS S.A.</t>
+  </si>
+  <si>
+    <t>KBC SECURITIES N.V.</t>
+  </si>
+  <si>
+    <t>ZUGER KANTONALBANK</t>
+  </si>
+  <si>
+    <t>ZUG</t>
+  </si>
+  <si>
+    <t>KBC BANK NV</t>
+  </si>
+  <si>
+    <t>ANTWERPEN</t>
+  </si>
+  <si>
+    <t>KBL (SWITZERLAND) LTD</t>
+  </si>
+  <si>
+    <t>BANKHAUS LAMPE KG</t>
+  </si>
+  <si>
+    <t>DUESSELDORF </t>
+  </si>
+  <si>
+    <t>BANKMED (SUISSE) S.A.</t>
+  </si>
+  <si>
+    <t>BANQUE LOMBARD ODIER ET CIE SA</t>
+  </si>
+  <si>
+    <t>LAROCHE ET CO. BANQUIERS</t>
+  </si>
+  <si>
+    <t>LUZERNER KANTONALBANK</t>
+  </si>
+  <si>
+    <t>LUCERNE</t>
+  </si>
+  <si>
+    <t>BANK LEUMI (SWITZERLAND) LTD</t>
+  </si>
+  <si>
+    <t>MAN SE</t>
+  </si>
+  <si>
+    <t>MUENCHEN </t>
   </si>
 </sst>
 </file>
@@ -4233,7 +4377,7 @@
   <dimension ref="B2:K55"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11192,15 +11336,15 @@
   </sheetPr>
   <dimension ref="G3:M199"/>
   <sheetViews>
-    <sheetView topLeftCell="E91" workbookViewId="0">
-      <selection activeCell="H121" sqref="H121"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="66.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12292,6 +12436,12 @@
       <c r="G84" t="s">
         <v>752</v>
       </c>
+      <c r="H84" t="s">
+        <v>866</v>
+      </c>
+      <c r="I84" t="s">
+        <v>124</v>
+      </c>
       <c r="J84" t="s">
         <v>989</v>
       </c>
@@ -12300,6 +12450,12 @@
       <c r="G85" t="s">
         <v>753</v>
       </c>
+      <c r="H85" t="s">
+        <v>866</v>
+      </c>
+      <c r="I85" t="s">
+        <v>968</v>
+      </c>
       <c r="J85" t="s">
         <v>968</v>
       </c>
@@ -12308,6 +12464,12 @@
       <c r="G86" t="s">
         <v>754</v>
       </c>
+      <c r="H86" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1020</v>
+      </c>
       <c r="J86" t="s">
         <v>966</v>
       </c>
@@ -12316,6 +12478,12 @@
       <c r="G87" t="s">
         <v>755</v>
       </c>
+      <c r="H87" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I87" t="s">
+        <v>965</v>
+      </c>
       <c r="J87" t="s">
         <v>966</v>
       </c>
@@ -12324,6 +12492,12 @@
       <c r="G88" t="s">
         <v>756</v>
       </c>
+      <c r="H88" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I88" t="s">
+        <v>144</v>
+      </c>
       <c r="J88" t="s">
         <v>145</v>
       </c>
@@ -12332,6 +12506,12 @@
       <c r="G89" t="s">
         <v>757</v>
       </c>
+      <c r="H89" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I89" t="s">
+        <v>962</v>
+      </c>
       <c r="J89" t="s">
         <v>145</v>
       </c>
@@ -12340,6 +12520,12 @@
       <c r="G90" t="s">
         <v>758</v>
       </c>
+      <c r="H90" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I90" t="s">
+        <v>965</v>
+      </c>
       <c r="J90" t="s">
         <v>966</v>
       </c>
@@ -12348,6 +12534,12 @@
       <c r="G91" t="s">
         <v>759</v>
       </c>
+      <c r="H91" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I91" t="s">
+        <v>965</v>
+      </c>
       <c r="J91" t="s">
         <v>966</v>
       </c>
@@ -12356,6 +12548,12 @@
       <c r="G92" t="s">
         <v>760</v>
       </c>
+      <c r="H92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1027</v>
+      </c>
       <c r="J92" t="s">
         <v>966</v>
       </c>
@@ -12364,6 +12562,12 @@
       <c r="G93" t="s">
         <v>91</v>
       </c>
+      <c r="H93" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I93" t="s">
+        <v>124</v>
+      </c>
       <c r="J93" t="s">
         <v>989</v>
       </c>
@@ -12372,6 +12576,12 @@
       <c r="G94" t="s">
         <v>761</v>
       </c>
+      <c r="H94" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I94" t="s">
+        <v>968</v>
+      </c>
       <c r="J94" t="s">
         <v>968</v>
       </c>
@@ -12380,6 +12590,12 @@
       <c r="G95" t="s">
         <v>762</v>
       </c>
+      <c r="H95" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I95" t="s">
+        <v>136</v>
+      </c>
       <c r="J95" t="s">
         <v>966</v>
       </c>
@@ -12402,6 +12618,12 @@
       <c r="G97" t="s">
         <v>764</v>
       </c>
+      <c r="H97" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1032</v>
+      </c>
       <c r="J97" t="s">
         <v>968</v>
       </c>
@@ -12410,6 +12632,12 @@
       <c r="G98" t="s">
         <v>765</v>
       </c>
+      <c r="H98" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I98" t="s">
+        <v>144</v>
+      </c>
       <c r="J98" t="s">
         <v>145</v>
       </c>
@@ -12418,6 +12646,12 @@
       <c r="G99" t="s">
         <v>766</v>
       </c>
+      <c r="H99" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I99" t="s">
+        <v>968</v>
+      </c>
       <c r="J99" t="s">
         <v>968</v>
       </c>
@@ -12426,6 +12660,12 @@
       <c r="G100" t="s">
         <v>767</v>
       </c>
+      <c r="H100" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I100" t="s">
+        <v>968</v>
+      </c>
       <c r="J100" t="s">
         <v>968</v>
       </c>
@@ -12434,6 +12674,12 @@
       <c r="G101" t="s">
         <v>768</v>
       </c>
+      <c r="H101" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1027</v>
+      </c>
       <c r="J101" t="s">
         <v>966</v>
       </c>
@@ -12442,6 +12688,12 @@
       <c r="G102" t="s">
         <v>769</v>
       </c>
+      <c r="H102" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I102" t="s">
+        <v>965</v>
+      </c>
       <c r="J102" t="s">
         <v>966</v>
       </c>
@@ -12450,6 +12702,12 @@
       <c r="G103" t="s">
         <v>770</v>
       </c>
+      <c r="H103" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I103" t="s">
+        <v>974</v>
+      </c>
       <c r="J103" t="s">
         <v>975</v>
       </c>
@@ -12458,6 +12716,12 @@
       <c r="G104" t="s">
         <v>771</v>
       </c>
+      <c r="H104" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1006</v>
+      </c>
       <c r="J104" t="s">
         <v>145</v>
       </c>
@@ -12466,6 +12730,12 @@
       <c r="G105" t="s">
         <v>772</v>
       </c>
+      <c r="H105" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I105" t="s">
+        <v>144</v>
+      </c>
       <c r="J105" t="s">
         <v>145</v>
       </c>
@@ -12474,6 +12744,12 @@
       <c r="G106" t="s">
         <v>773</v>
       </c>
+      <c r="H106" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I106" t="s">
+        <v>962</v>
+      </c>
       <c r="J106" t="s">
         <v>145</v>
       </c>
@@ -12482,6 +12758,12 @@
       <c r="G107" t="s">
         <v>774</v>
       </c>
+      <c r="H107" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I107" t="s">
+        <v>136</v>
+      </c>
       <c r="J107" t="s">
         <v>966</v>
       </c>
@@ -12490,6 +12772,12 @@
       <c r="G108" t="s">
         <v>775</v>
       </c>
+      <c r="H108" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1044</v>
+      </c>
       <c r="J108" t="s">
         <v>966</v>
       </c>
@@ -12498,6 +12786,12 @@
       <c r="G109" t="s">
         <v>776</v>
       </c>
+      <c r="H109" t="s">
+        <v>872</v>
+      </c>
+      <c r="I109" t="s">
+        <v>965</v>
+      </c>
       <c r="J109" t="s">
         <v>966</v>
       </c>
@@ -12506,6 +12800,12 @@
       <c r="G110" t="s">
         <v>777</v>
       </c>
+      <c r="H110" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I110" t="s">
+        <v>144</v>
+      </c>
       <c r="J110" t="s">
         <v>145</v>
       </c>
@@ -12514,6 +12814,12 @@
       <c r="G111" t="s">
         <v>778</v>
       </c>
+      <c r="H111" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I111" t="s">
+        <v>144</v>
+      </c>
       <c r="J111" t="s">
         <v>145</v>
       </c>
@@ -12522,6 +12828,12 @@
       <c r="G112" t="s">
         <v>779</v>
       </c>
+      <c r="H112" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I112" t="s">
+        <v>968</v>
+      </c>
       <c r="J112" t="s">
         <v>968</v>
       </c>
@@ -12530,6 +12842,12 @@
       <c r="G113" t="s">
         <v>780</v>
       </c>
+      <c r="H113" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1049</v>
+      </c>
       <c r="J113" t="s">
         <v>145</v>
       </c>
@@ -12538,6 +12856,12 @@
       <c r="G114" t="s">
         <v>781</v>
       </c>
+      <c r="H114" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I114" t="s">
+        <v>968</v>
+      </c>
       <c r="J114" t="s">
         <v>968</v>
       </c>
@@ -12546,6 +12870,12 @@
       <c r="G115" t="s">
         <v>782</v>
       </c>
+      <c r="H115" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I115" t="s">
+        <v>974</v>
+      </c>
       <c r="J115" t="s">
         <v>975</v>
       </c>
@@ -12554,6 +12884,12 @@
       <c r="G116" t="s">
         <v>783</v>
       </c>
+      <c r="H116" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1053</v>
+      </c>
       <c r="J116" t="s">
         <v>145</v>
       </c>
@@ -12562,6 +12898,12 @@
       <c r="G117" t="s">
         <v>784</v>
       </c>
+      <c r="H117" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1055</v>
+      </c>
       <c r="J117" t="s">
         <v>975</v>
       </c>
@@ -12570,6 +12912,12 @@
       <c r="G118" t="s">
         <v>785</v>
       </c>
+      <c r="H118" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I118" t="s">
+        <v>974</v>
+      </c>
       <c r="J118" t="s">
         <v>975</v>
       </c>
@@ -12578,6 +12926,12 @@
       <c r="G119" t="s">
         <v>786</v>
       </c>
+      <c r="H119" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I119" t="s">
+        <v>962</v>
+      </c>
       <c r="J119" t="s">
         <v>145</v>
       </c>
@@ -12586,6 +12940,12 @@
       <c r="G120" t="s">
         <v>787</v>
       </c>
+      <c r="H120" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1058</v>
+      </c>
       <c r="J120" t="s">
         <v>966</v>
       </c>
@@ -12608,6 +12968,12 @@
       <c r="G122" t="s">
         <v>789</v>
       </c>
+      <c r="H122" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I122" t="s">
+        <v>962</v>
+      </c>
       <c r="J122" t="s">
         <v>145</v>
       </c>
@@ -12616,6 +12982,12 @@
       <c r="G123" t="s">
         <v>790</v>
       </c>
+      <c r="H123" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1006</v>
+      </c>
       <c r="J123" t="s">
         <v>145</v>
       </c>
@@ -12624,6 +12996,12 @@
       <c r="G124" t="s">
         <v>791</v>
       </c>
+      <c r="H124" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1063</v>
+      </c>
       <c r="J124" t="s">
         <v>145</v>
       </c>
@@ -12632,6 +13010,12 @@
       <c r="G125" t="s">
         <v>792</v>
       </c>
+      <c r="H125" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I125" t="s">
+        <v>144</v>
+      </c>
       <c r="J125" t="s">
         <v>145</v>
       </c>
@@ -12640,6 +13024,12 @@
       <c r="G126" t="s">
         <v>793</v>
       </c>
+      <c r="H126" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1066</v>
+      </c>
       <c r="J126" t="s">
         <v>966</v>
       </c>
@@ -12647,6 +13037,12 @@
     <row r="127" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G127" t="s">
         <v>794</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I127" t="s">
+        <v>962</v>
       </c>
       <c r="J127" t="s">
         <v>145</v>
@@ -13372,7 +13768,7 @@
   </sheetPr>
   <dimension ref="F2:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>

--- a/counterp/Report - data support.xlsx
+++ b/counterp/Report - data support.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco SPAGNULO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16EB875-FA9C-4001-BB8D-499FBF1C84F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBB192A-8094-4883-8278-18F3DF7242F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="872" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="1105">
   <si>
     <t>BANK EGHTESAD NOVIN</t>
   </si>
@@ -3406,6 +3406,120 @@
   </si>
   <si>
     <t>MUENCHEN </t>
+  </si>
+  <si>
+    <t>MIGROS BANK</t>
+  </si>
+  <si>
+    <t>MONTE PASCHI BANQUE S.A.</t>
+  </si>
+  <si>
+    <t>BANK MORGAN STANLEY AG</t>
+  </si>
+  <si>
+    <t>NASSAUISCHE SPARKASSE</t>
+  </si>
+  <si>
+    <t>WIESBADEN</t>
+  </si>
+  <si>
+    <t>NATIXIS</t>
+  </si>
+  <si>
+    <t>NIDERA B.V.</t>
+  </si>
+  <si>
+    <t>ROTTERDAM</t>
+  </si>
+  <si>
+    <t>ZUERCHER KANTONALBANK OESTERREICH AG</t>
+  </si>
+  <si>
+    <t>SALZBURG</t>
+  </si>
+  <si>
+    <t>PICTET ET CIE (EUROPE) S.A.</t>
+  </si>
+  <si>
+    <t>PKB PRIVATBANK AG</t>
+  </si>
+  <si>
+    <t>BANK HAPOALIM (SWITZERLAND) LTD</t>
+  </si>
+  <si>
+    <t>POSTFINANCE AG</t>
+  </si>
+  <si>
+    <t>BANQUE PRIVEE EDMOND DE ROTHSCHILD EUROPE</t>
+  </si>
+  <si>
+    <t>PSA INTERNATIONAL S.A.</t>
+  </si>
+  <si>
+    <t>RAIFFEISEN SCHWEIZ GENOSSENSCHAFT</t>
+  </si>
+  <si>
+    <t>ST. GALLEN</t>
+  </si>
+  <si>
+    <t>THE ROYAL BANK OF SCOTLAND N.V.</t>
+  </si>
+  <si>
+    <t>RENAULT FINANCE S.A.</t>
+  </si>
+  <si>
+    <t>RAIFFEISENLANDESBANK NIEDEROESTERREICH WIEN AG</t>
+  </si>
+  <si>
+    <t>BANK J. SAFRA SARASIN LTD</t>
+  </si>
+  <si>
+    <t>SWISS EURO CLEARING BANK GMBH</t>
+  </si>
+  <si>
+    <t>SBERBANK (SWITZERLAND) AG</t>
+  </si>
+  <si>
+    <t>SOCIETE GENERALE MONTE CARLO</t>
+  </si>
+  <si>
+    <t>LANDESBANK BADEN WUERTTEMBERG</t>
+  </si>
+  <si>
+    <t>STUTTGART</t>
+  </si>
+  <si>
+    <t>SUEDWESTBANK AG</t>
+  </si>
+  <si>
+    <t>SWISSQUOTE BANK</t>
+  </si>
+  <si>
+    <t>GLAND</t>
+  </si>
+  <si>
+    <t>TURKIYE GARANTI BANKASI AS</t>
+  </si>
+  <si>
+    <t>SIX INTERBANK CLEARING AG</t>
+  </si>
+  <si>
+    <t>UNION BANCAIRE PRIVEE</t>
+  </si>
+  <si>
+    <t>FALCON PRIVATE BANK LTD</t>
+  </si>
+  <si>
+    <t>ROSBANK (SWITZERLAND) SA</t>
+  </si>
+  <si>
+    <t>BANK VONTOBEL AG</t>
+  </si>
+  <si>
+    <t>NOTENSTEIN LA ROCHE PRIVATBANK AG</t>
+  </si>
+  <si>
+    <t>ZUERCHER KANTONALBANK</t>
   </si>
 </sst>
 </file>
@@ -10790,7 +10904,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="7:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:13" x14ac:dyDescent="0.3">
       <c r="H35" t="s">
         <v>574</v>
       </c>
@@ -11336,8 +11450,8 @@
   </sheetPr>
   <dimension ref="G3:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13052,6 +13166,12 @@
       <c r="G128" t="s">
         <v>95</v>
       </c>
+      <c r="H128" t="s">
+        <v>30</v>
+      </c>
+      <c r="I128" t="s">
+        <v>136</v>
+      </c>
       <c r="J128" t="s">
         <v>966</v>
       </c>
@@ -13060,6 +13180,12 @@
       <c r="G129" t="s">
         <v>795</v>
       </c>
+      <c r="H129" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I129" t="s">
+        <v>144</v>
+      </c>
       <c r="J129" t="s">
         <v>145</v>
       </c>
@@ -13068,6 +13194,12 @@
       <c r="G130" t="s">
         <v>796</v>
       </c>
+      <c r="H130" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I130" t="s">
+        <v>124</v>
+      </c>
       <c r="J130" t="s">
         <v>989</v>
       </c>
@@ -13076,6 +13208,12 @@
       <c r="G131" t="s">
         <v>797</v>
       </c>
+      <c r="H131" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I131" t="s">
+        <v>144</v>
+      </c>
       <c r="J131" t="s">
         <v>145</v>
       </c>
@@ -13084,6 +13222,12 @@
       <c r="G132" t="s">
         <v>798</v>
       </c>
+      <c r="H132" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1071</v>
+      </c>
       <c r="J132" t="s">
         <v>966</v>
       </c>
@@ -13092,6 +13236,12 @@
       <c r="G133" t="s">
         <v>799</v>
       </c>
+      <c r="H133" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I133" t="s">
+        <v>124</v>
+      </c>
       <c r="J133" t="s">
         <v>989</v>
       </c>
@@ -13100,6 +13250,12 @@
       <c r="G134" t="s">
         <v>800</v>
       </c>
+      <c r="H134" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1074</v>
+      </c>
       <c r="J134" t="s">
         <v>960</v>
       </c>
@@ -13108,6 +13264,12 @@
       <c r="G135" t="s">
         <v>801</v>
       </c>
+      <c r="H135" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1076</v>
+      </c>
       <c r="J135" t="s">
         <v>993</v>
       </c>
@@ -13116,6 +13278,12 @@
       <c r="G136" t="s">
         <v>802</v>
       </c>
+      <c r="H136" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I136" t="s">
+        <v>968</v>
+      </c>
       <c r="J136" t="s">
         <v>968</v>
       </c>
@@ -13124,6 +13292,12 @@
       <c r="G137" t="s">
         <v>803</v>
       </c>
+      <c r="H137" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I137" t="s">
+        <v>972</v>
+      </c>
       <c r="J137" t="s">
         <v>145</v>
       </c>
@@ -13132,6 +13306,12 @@
       <c r="G138" t="s">
         <v>804</v>
       </c>
+      <c r="H138" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I138" t="s">
+        <v>144</v>
+      </c>
       <c r="J138" t="s">
         <v>145</v>
       </c>
@@ -13140,6 +13320,12 @@
       <c r="G139" t="s">
         <v>805</v>
       </c>
+      <c r="H139" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I139" t="s">
+        <v>968</v>
+      </c>
       <c r="J139" t="s">
         <v>968</v>
       </c>
@@ -13148,6 +13334,12 @@
       <c r="G140" t="s">
         <v>806</v>
       </c>
+      <c r="H140" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1049</v>
+      </c>
       <c r="J140" t="s">
         <v>145</v>
       </c>
@@ -13156,6 +13348,12 @@
       <c r="G141" t="s">
         <v>807</v>
       </c>
+      <c r="H141" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I141" t="s">
+        <v>968</v>
+      </c>
       <c r="J141" t="s">
         <v>968</v>
       </c>
@@ -13164,6 +13362,12 @@
       <c r="G142" t="s">
         <v>808</v>
       </c>
+      <c r="H142" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I142" t="s">
+        <v>962</v>
+      </c>
       <c r="J142" t="s">
         <v>145</v>
       </c>
@@ -13172,6 +13376,12 @@
       <c r="G143" t="s">
         <v>809</v>
       </c>
+      <c r="H143" t="s">
+        <v>470</v>
+      </c>
+      <c r="I143" t="s">
+        <v>124</v>
+      </c>
       <c r="J143" t="s">
         <v>989</v>
       </c>
@@ -13180,6 +13390,12 @@
       <c r="G144" t="s">
         <v>810</v>
       </c>
+      <c r="H144" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1084</v>
+      </c>
       <c r="J144" t="s">
         <v>145</v>
       </c>
@@ -13188,6 +13404,12 @@
       <c r="G145" t="s">
         <v>811</v>
       </c>
+      <c r="H145" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I145" t="s">
+        <v>991</v>
+      </c>
       <c r="J145" t="s">
         <v>960</v>
       </c>
@@ -13196,6 +13418,12 @@
       <c r="G146" t="s">
         <v>812</v>
       </c>
+      <c r="H146" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I146" t="s">
+        <v>983</v>
+      </c>
       <c r="J146" t="s">
         <v>145</v>
       </c>
@@ -13204,6 +13432,12 @@
       <c r="G147" t="s">
         <v>813</v>
       </c>
+      <c r="H147" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I147" t="s">
+        <v>992</v>
+      </c>
       <c r="J147" t="s">
         <v>993</v>
       </c>
@@ -13212,7 +13446,7 @@
       <c r="G148" t="s">
         <v>814</v>
       </c>
-      <c r="H148" s="12" t="s">
+      <c r="H148" t="s">
         <v>999</v>
       </c>
       <c r="I148" t="s">
@@ -13226,6 +13460,12 @@
       <c r="G149" t="s">
         <v>815</v>
       </c>
+      <c r="H149" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1006</v>
+      </c>
       <c r="J149" t="s">
         <v>145</v>
       </c>
@@ -13234,6 +13474,12 @@
       <c r="G150" t="s">
         <v>816</v>
       </c>
+      <c r="H150" t="s">
+        <v>631</v>
+      </c>
+      <c r="I150" t="s">
+        <v>124</v>
+      </c>
       <c r="J150" t="s">
         <v>989</v>
       </c>
@@ -13242,6 +13488,12 @@
       <c r="G151" t="s">
         <v>817</v>
       </c>
+      <c r="H151" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I151" t="s">
+        <v>139</v>
+      </c>
       <c r="J151" t="s">
         <v>966</v>
       </c>
@@ -13250,6 +13502,12 @@
       <c r="G152" t="s">
         <v>96</v>
       </c>
+      <c r="H152" t="s">
+        <v>138</v>
+      </c>
+      <c r="I152" t="s">
+        <v>139</v>
+      </c>
       <c r="J152" t="s">
         <v>966</v>
       </c>
@@ -13258,6 +13516,12 @@
       <c r="G153" t="s">
         <v>818</v>
       </c>
+      <c r="H153" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I153" t="s">
+        <v>144</v>
+      </c>
       <c r="J153" t="s">
         <v>145</v>
       </c>
@@ -13266,6 +13530,12 @@
       <c r="G154" t="s">
         <v>819</v>
       </c>
+      <c r="H154" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I154" t="s">
+        <v>998</v>
+      </c>
       <c r="J154" t="s">
         <v>998</v>
       </c>
@@ -13274,6 +13544,12 @@
       <c r="G155" t="s">
         <v>820</v>
       </c>
+      <c r="H155" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1093</v>
+      </c>
       <c r="J155" t="s">
         <v>966</v>
       </c>
@@ -13282,6 +13558,12 @@
       <c r="G156" t="s">
         <v>821</v>
       </c>
+      <c r="H156" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1093</v>
+      </c>
       <c r="J156" t="s">
         <v>966</v>
       </c>
@@ -13290,6 +13572,12 @@
       <c r="G157" t="s">
         <v>822</v>
       </c>
+      <c r="H157" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1096</v>
+      </c>
       <c r="J157" t="s">
         <v>145</v>
       </c>
@@ -13298,6 +13586,12 @@
       <c r="G158" t="s">
         <v>823</v>
       </c>
+      <c r="H158" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I158" t="s">
+        <v>968</v>
+      </c>
       <c r="J158" t="s">
         <v>968</v>
       </c>
@@ -13306,6 +13600,12 @@
       <c r="G159" t="s">
         <v>824</v>
       </c>
+      <c r="H159" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I159" t="s">
+        <v>144</v>
+      </c>
       <c r="J159" t="s">
         <v>145</v>
       </c>
@@ -13314,6 +13614,12 @@
       <c r="G160" t="s">
         <v>825</v>
       </c>
+      <c r="H160" t="s">
+        <v>412</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1055</v>
+      </c>
       <c r="J160" t="s">
         <v>975</v>
       </c>
@@ -13322,6 +13628,12 @@
       <c r="G161" t="s">
         <v>826</v>
       </c>
+      <c r="H161" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I161" t="s">
+        <v>962</v>
+      </c>
       <c r="J161" t="s">
         <v>145</v>
       </c>
@@ -13330,6 +13642,12 @@
       <c r="G162" t="s">
         <v>827</v>
       </c>
+      <c r="H162" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I162" t="s">
+        <v>144</v>
+      </c>
       <c r="J162" t="s">
         <v>145</v>
       </c>
@@ -13338,6 +13656,12 @@
       <c r="G163" t="s">
         <v>828</v>
       </c>
+      <c r="H163" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I163" t="s">
+        <v>144</v>
+      </c>
       <c r="J163" t="s">
         <v>145</v>
       </c>
@@ -13346,6 +13670,12 @@
       <c r="G164" t="s">
         <v>829</v>
       </c>
+      <c r="H164" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I164" t="s">
+        <v>962</v>
+      </c>
       <c r="J164" t="s">
         <v>145</v>
       </c>
@@ -13354,6 +13684,12 @@
       <c r="G165" t="s">
         <v>98</v>
       </c>
+      <c r="H165" t="s">
+        <v>143</v>
+      </c>
+      <c r="I165" t="s">
+        <v>144</v>
+      </c>
       <c r="J165" t="s">
         <v>145</v>
       </c>
@@ -13362,6 +13698,12 @@
       <c r="G166" t="s">
         <v>830</v>
       </c>
+      <c r="H166" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I166" t="s">
+        <v>144</v>
+      </c>
       <c r="J166" t="s">
         <v>145</v>
       </c>
@@ -13370,6 +13712,12 @@
       <c r="G167" t="s">
         <v>831</v>
       </c>
+      <c r="H167" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I167" t="s">
+        <v>1084</v>
+      </c>
       <c r="J167" t="s">
         <v>145</v>
       </c>
@@ -13378,8 +13726,20 @@
       <c r="G168" t="s">
         <v>832</v>
       </c>
+      <c r="H168" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I168" t="s">
+        <v>144</v>
+      </c>
       <c r="J168" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="170" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G170">
+        <f>COUNTA(G46:G168)</f>
+        <v>123</v>
       </c>
     </row>
     <row r="172" spans="7:10" x14ac:dyDescent="0.3">
